--- a/similarities/split_global/harmonic_similarity_timestamps_156.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_156.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:05.300000', '0:01:13.120000')]</t>
+          <t>('0:00:02.600000', '0:00:04.500000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:48.250000', '0:00:59.490000')]</t>
+          <t>('0:00:02.580000', '0:00:07.080000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=65.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=48.25']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=2.58</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
+          <t>['C:min', 'F:7/A', 'A#:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>['C:min', 'F:7/C', 'A#']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:41.320000', '0:00:49.380000')]</t>
+          <t>('0:00:34.240000', '0:00:40.760000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:36.060000', '0:01:47.420000')]</t>
+          <t>('0:00:33.260000', '0:00:35.860000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=41.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=34.24</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=96.06']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=33.26</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>isophonics_125</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['G:7', 'C:maj', 'C:min']]</t>
+          <t>['A:min/C', 'D:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:min']]</t>
+          <t>['A:min', 'D', 'D/2']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.580000', '0:00:08.960000'), ('0:00:28.300000', '0:00:38.340000')]</t>
+          <t>('0:00:07.080000', '0:00:09.260000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:00.120000', '0:01:01.360000'), ('0:01:00.680000', '0:01:03.420000')]</t>
+          <t>('0:01:16.299013', '0:01:18.748718')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=28.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=7.08</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.68']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-125#t=76.299013</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_7</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'F:min7'], ['Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb:maj6'], ['F:7', 'Bb:7', 'Eb']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:41.090000', '0:01:47.520000'), ('0:00:14.400000', '0:00:16.430000')]</t>
+          <t>('0:01:14.500000', '0:01:20.420000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:14.240000', '0:00:17.770000'), ('0:00:27.250000', '0:00:30.810000')]</t>
+          <t>('0:00:18.420000', '0:00:24.340000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=101.09', 'https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=14.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=74.5</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=14.24', 'https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=27.25']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=18.42</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'C:7', 'F']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E']]</t>
+          <t>['F:7', 'Bb:7', 'Eb', 'Bb:7', 'Eb', 'Bb:7']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:36.970000', '0:00:42.100000')]</t>
+          <t>('0:00:54.100000', '0:01:07.670000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:07.300000', '0:01:13.160000')]</t>
+          <t>('0:00:43.610000', '0:00:50.810000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=36.97']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=54.1</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=67.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=43.61</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_93</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['B', 'C#:min', 'B']]</t>
+          <t>['C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G', 'A:min', 'G']]</t>
+          <t>['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:05.191000', '0:00:08.545000')]</t>
+          <t>('0:00:34.380000', '0:00:52.440000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:05.544331', '0:00:12.916666')]</t>
+          <t>('0:00:02.020000', '0:00:10.620000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=5.191']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=34.38</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-93#t=5.544331']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.02</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['A/3', 'A:min/b3', 'E/5']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['B:maj', 'B:min', 'F#:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+          <t>('0:00:38.032000', '0:00:41')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:22.290863', '0:01:33.575761')]</t>
+          <t>('0:00:10.320000', '0:00:18.140000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=38.032</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=82.290863']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=10.32</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
+          <t>schubert-winterreise_58</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_199</t>
+          <t>schubert-winterreise_19</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'F']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'G']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:05.776000', '0:00:09.009000')]</t>
+          <t>('0:00:37.960000', '0:00:44.800000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:03.028463', '0:00:06.708825')]</t>
+          <t>('0:00:00.360000', '0:00:05')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=5.776']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=37.96</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-199#t=3.028463']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=0.36</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:01.460000', '0:00:11.260000')]</t>
+          <t>('0:01:02.480000', '0:01:04.920000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:24.280000', '0:00:44.360000')]</t>
+          <t>('0:00:21.580000', '0:00:29.340000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=24.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['C:min', 'G:maj', 'C:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:48.001000', '0:00:54.307000')]</t>
+          <t>('0:00:12.120000', '0:00:17.320000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:31.600000', '0:00:33.800000')]</t>
+          <t>('0:00:07.523000', '0:00:10.397000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=48.001']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=12.12</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=31.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=7.523</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>isophonics_200</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['E:7', 'A', 'D', 'A', 'E']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:01.300000', '0:01:10.460000')]</t>
+          <t>('0:00:54.580000', '0:01:06.200000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:23.260000', '0:00:33.620000')]</t>
+          <t>('0:00:00.446618', '0:00:18.139715')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=61.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=54.58</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=0.446618</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_4</t>
+          <t>isophonics_191</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_245</t>
+          <t>schubert-winterreise_138</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min/5']]</t>
+          <t>['Bb:7', 'Eb:min', 'Ab:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min', 'F#:min']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:24.323000', '0:01:27.713000')]</t>
+          <t>('0:00:08.620975', '0:00:14.367913')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:36.732085', '0:00:41.248366')]</t>
+          <t>('0:00:07.540000', '0:00:18')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-4#t=84.323']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-191#t=8.620975</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-245#t=36.732085']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=7.54</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb']]</t>
+          <t>['D:7', 'G:maj', 'E:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Db']]</t>
+          <t>['Eb:7', 'Ab', 'F:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:00.460000', '0:00:05.060000')]</t>
+          <t>('0:00:09.140000', '0:00:19.060000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:05.571955', '0:00:28.079297')]</t>
+          <t>('0:00:45.320000', '0:00:48.590000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=0.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=9.14</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=5.571955']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=45.32</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_111</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C', 'G:7', 'C', 'G:7', 'C']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:10.519024', '0:01:19.249727')]</t>
+          <t>('0:01:03.840000', '0:01:05.240000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:46.120000', '0:00:50.740000')]</t>
+          <t>('0:01:16.560000', '0:01:27.040000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-111#t=70.519024']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=46.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=76.56</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>schubert-winterreise_119</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb:7/b7', 'Ab'], ['Bb', 'Eb:7', 'Ab']]</t>
+          <t>['G:7', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'D#:7', 'G#:maj'], ['A#:maj', 'D#:7/C#', 'G#:maj/C']]</t>
+          <t>['A:7', 'D', 'A/3']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:07.604557', '0:00:16.370090'), ('0:00:23.428956', '0:00:30.731632')]</t>
+          <t>('0:00:05.360000', '0:00:11.380000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:17.980000', '0:00:26.320000'), ('0:01:01.420000', '0:01:05.280000')]</t>
+          <t>('0:00:38.689000', '0:00:45.633000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=7.604557', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=23.428956']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=5.36</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=17.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=61.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=38.689</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
